--- a/Reliability_Row_data/static/src/modelfiles/MQM.xlsx
+++ b/Reliability_Row_data/static/src/modelfiles/MQM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="3678" windowWidth="18318" windowHeight="3528"/>
+    <workbookView xWindow="876" yWindow="3684" windowWidth="18324" windowHeight="3528"/>
   </bookViews>
   <sheets>
     <sheet name="MQM" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MQM!$D$1:$AI$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,47 +308,53 @@
   <si>
     <t>QT</t>
   </si>
+  <si>
+    <t>QF_L</t>
+  </si>
+  <si>
+    <t>Qd_L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="22">
-    <numFmt numFmtId="164" formatCode="[$€-404]* #,##0.00\ ;\-[$€-404]* #,##0.00\ ;[$€-404]* \-#\ "/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="General_)"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="&quot;fl&quot;#,##0_);&quot;(fl&quot;#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="&quot;fl&quot;#,##0_);[Red]&quot;(fl&quot;#,##0\)"/>
-    <numFmt numFmtId="170" formatCode="&quot;fl&quot;#,##0.00_);&quot;(fl&quot;#,##0.00\)"/>
-    <numFmt numFmtId="171" formatCode="_(\$* #,##0,\K_);_(\$* \(#,##0,&quot;K)&quot;;_(\$* \-_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(\$* #,##0.0,\K_);_(\$* \(#,##0.0,&quot;K)&quot;;_(\$* \-_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="\\#,##0;&quot;\\\\-&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="0.00_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0,\K_);_(* \(#,##0,&quot;K)&quot;;_(* \-_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0,\K_);_(* \(#,##0.0,&quot;K)&quot;;_(* \-_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="\60&quot;47:&quot;"/>
-    <numFmt numFmtId="178" formatCode="&quot;fl&quot;#,##0.00_);[Red]&quot;(fl&quot;#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;fl&quot;* #,##0_);_(&quot;fl&quot;* \(#,##0\);_(&quot;fl&quot;* \-_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* \-??_-"/>
-    <numFmt numFmtId="181" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="\\#,##0;[Red]&quot;\\-&quot;#,##0"/>
-    <numFmt numFmtId="183" formatCode="\\#,##0.00;[Red]&quot;\\\\\\-&quot;#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="\\#,##0;[Red]&quot;\-&quot;#,##0"/>
-    <numFmt numFmtId="185" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$€-404]* #,##0.00\ ;\-[$€-404]* #,##0.00\ ;[$€-404]* \-#\ "/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="General_)"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="&quot;fl&quot;#,##0_);&quot;(fl&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="&quot;fl&quot;#,##0_);[Red]&quot;(fl&quot;#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="&quot;fl&quot;#,##0.00_);&quot;(fl&quot;#,##0.00\)"/>
+    <numFmt numFmtId="183" formatCode="_(\$* #,##0,\K_);_(\$* \(#,##0,&quot;K)&quot;;_(\$* \-_);_(@_)"/>
+    <numFmt numFmtId="184" formatCode="_(\$* #,##0.0,\K_);_(\$* \(#,##0.0,&quot;K)&quot;;_(\$* \-_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="\\#,##0;&quot;\\\\-&quot;#,##0"/>
+    <numFmt numFmtId="186" formatCode="0.00_)"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0,\K_);_(* \(#,##0,&quot;K)&quot;;_(* \-_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="_(* #,##0.0,\K_);_(* \(#,##0.0,&quot;K)&quot;;_(* \-_);_(@_)"/>
+    <numFmt numFmtId="189" formatCode="\60&quot;47:&quot;"/>
+    <numFmt numFmtId="190" formatCode="&quot;fl&quot;#,##0.00_);[Red]&quot;(fl&quot;#,##0.00\)"/>
+    <numFmt numFmtId="191" formatCode="_(&quot;fl&quot;* #,##0_);_(&quot;fl&quot;* \(#,##0\);_(&quot;fl&quot;* \-_);_(@_)"/>
+    <numFmt numFmtId="192" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* \-??_-"/>
+    <numFmt numFmtId="193" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
+    <numFmt numFmtId="194" formatCode="\\#,##0;[Red]&quot;\\-&quot;#,##0"/>
+    <numFmt numFmtId="195" formatCode="\\#,##0.00;[Red]&quot;\\\\\\-&quot;#,##0.00"/>
+    <numFmt numFmtId="196" formatCode="\\#,##0;[Red]&quot;\-&quot;#,##0"/>
+    <numFmt numFmtId="197" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
   <fonts count="71">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -771,7 +777,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -779,18 +785,20 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1346,33 +1354,33 @@
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="33" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1445,11 +1453,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1472,7 +1480,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1484,16 +1492,16 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1517,8 +1525,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="190" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="191" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1565,13 +1573,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="192" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
@@ -1621,7 +1629,7 @@
     <xf numFmtId="0" fontId="47" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1648,10 +1656,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="192" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -1666,17 +1674,17 @@
     <xf numFmtId="0" fontId="61" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="196" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="67" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,6 +1731,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2011,17 +2022,49 @@
     <cellStyle name="Warning 8" xfId="283"/>
     <cellStyle name="Warning 9" xfId="284"/>
     <cellStyle name="Warning Text" xfId="285"/>
+    <cellStyle name="備註 2" xfId="355"/>
+    <cellStyle name="標題 1 1" xfId="367"/>
+    <cellStyle name="標題 1 2" xfId="368"/>
+    <cellStyle name="標題 2 2" xfId="369"/>
+    <cellStyle name="標題 3 2" xfId="370"/>
+    <cellStyle name="標題 4 2" xfId="371"/>
+    <cellStyle name="標題 5" xfId="372"/>
+    <cellStyle name="常规_F32M sourcing plan D 080404" xfId="350"/>
+    <cellStyle name="超連結 2" xfId="356"/>
+    <cellStyle name="超連結 2 2" xfId="357"/>
+    <cellStyle name="超連結 3" xfId="358"/>
+    <cellStyle name="超連結 4" xfId="359"/>
+    <cellStyle name="輔色1 2" xfId="361"/>
+    <cellStyle name="輔色2 2" xfId="362"/>
+    <cellStyle name="輔色3 2" xfId="363"/>
+    <cellStyle name="輔色4 2" xfId="364"/>
+    <cellStyle name="輔色5 2" xfId="365"/>
+    <cellStyle name="輔色6 2" xfId="366"/>
+    <cellStyle name="好 2" xfId="348"/>
+    <cellStyle name="合計 2" xfId="347"/>
+    <cellStyle name="壞 2" xfId="391"/>
+    <cellStyle name="貨幣[0]_0929-" xfId="351"/>
+    <cellStyle name="計算方式 2" xfId="349"/>
+    <cellStyle name="檢查儲存格 2" xfId="387"/>
+    <cellStyle name="警告文字 2" xfId="393"/>
+    <cellStyle name="連結的儲存格 2" xfId="352"/>
     <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="353"/>
     <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="354"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="388"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="389"/>
-    <cellStyle name="백분율_HOBONG" xfId="390"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="392"/>
-    <cellStyle name="콤마 [0]_1202" xfId="394"/>
-    <cellStyle name="콤마_1202" xfId="395"/>
-    <cellStyle name="통화 [0]_1202" xfId="396"/>
-    <cellStyle name="통화_1202" xfId="397"/>
-    <cellStyle name="표준_(정보부문)월별인원계획" xfId="398"/>
+    <cellStyle name="輸出 2" xfId="385"/>
+    <cellStyle name="輸入 2" xfId="384"/>
+    <cellStyle name="說明文字 2" xfId="360"/>
+    <cellStyle name="隨後的超連結" xfId="386"/>
+    <cellStyle name="樣式 1" xfId="373"/>
+    <cellStyle name="樣式 1 13" xfId="374"/>
+    <cellStyle name="樣式 1 2" xfId="375"/>
+    <cellStyle name="樣式 1 2 2" xfId="376"/>
+    <cellStyle name="樣式 1 2 2 2" xfId="377"/>
+    <cellStyle name="樣式 1 2 2 3" xfId="378"/>
+    <cellStyle name="樣式 1 2 2 5" xfId="379"/>
+    <cellStyle name="樣式 1 3" xfId="380"/>
+    <cellStyle name="樣式 1 5" xfId="381"/>
+    <cellStyle name="樣式 1 5 2" xfId="382"/>
+    <cellStyle name="樣式 1 5 3" xfId="383"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 11" xfId="286"/>
     <cellStyle name="一般 16" xfId="287"/>
@@ -2086,50 +2129,39 @@
     <cellStyle name="一般 72 2" xfId="399"/>
     <cellStyle name="一般 8" xfId="345"/>
     <cellStyle name="一般 9" xfId="1"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="388"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="389"/>
+    <cellStyle name="백분율_HOBONG" xfId="390"/>
     <cellStyle name="中等 2" xfId="346"/>
-    <cellStyle name="備註 2" xfId="355"/>
-    <cellStyle name="合計 2" xfId="347"/>
-    <cellStyle name="壞 2" xfId="391"/>
-    <cellStyle name="好 2" xfId="348"/>
-    <cellStyle name="常规_F32M sourcing plan D 080404" xfId="350"/>
-    <cellStyle name="標題 1 1" xfId="367"/>
-    <cellStyle name="標題 1 2" xfId="368"/>
-    <cellStyle name="標題 2 2" xfId="369"/>
-    <cellStyle name="標題 3 2" xfId="370"/>
-    <cellStyle name="標題 4 2" xfId="371"/>
-    <cellStyle name="標題 5" xfId="372"/>
-    <cellStyle name="樣式 1" xfId="373"/>
-    <cellStyle name="樣式 1 13" xfId="374"/>
-    <cellStyle name="樣式 1 2" xfId="375"/>
-    <cellStyle name="樣式 1 2 2" xfId="376"/>
-    <cellStyle name="樣式 1 2 2 2" xfId="377"/>
-    <cellStyle name="樣式 1 2 2 3" xfId="378"/>
-    <cellStyle name="樣式 1 2 2 5" xfId="379"/>
-    <cellStyle name="樣式 1 3" xfId="380"/>
-    <cellStyle name="樣式 1 5" xfId="381"/>
-    <cellStyle name="樣式 1 5 2" xfId="382"/>
-    <cellStyle name="樣式 1 5 3" xfId="383"/>
-    <cellStyle name="檢查儲存格 2" xfId="387"/>
-    <cellStyle name="計算方式 2" xfId="349"/>
-    <cellStyle name="說明文字 2" xfId="360"/>
-    <cellStyle name="警告文字 2" xfId="393"/>
-    <cellStyle name="貨幣[0]_0929-" xfId="351"/>
-    <cellStyle name="超連結 2" xfId="356"/>
-    <cellStyle name="超連結 2 2" xfId="357"/>
-    <cellStyle name="超連結 3" xfId="358"/>
-    <cellStyle name="超連結 4" xfId="359"/>
-    <cellStyle name="輔色1 2" xfId="361"/>
-    <cellStyle name="輔色2 2" xfId="362"/>
-    <cellStyle name="輔色3 2" xfId="363"/>
-    <cellStyle name="輔色4 2" xfId="364"/>
-    <cellStyle name="輔色5 2" xfId="365"/>
-    <cellStyle name="輔色6 2" xfId="366"/>
-    <cellStyle name="輸入 2" xfId="384"/>
-    <cellStyle name="輸出 2" xfId="385"/>
-    <cellStyle name="連結的儲存格 2" xfId="352"/>
-    <cellStyle name="隨後的超連結" xfId="386"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="392"/>
+    <cellStyle name="콤마 [0]_1202" xfId="394"/>
+    <cellStyle name="콤마_1202" xfId="395"/>
+    <cellStyle name="통화 [0]_1202" xfId="396"/>
+    <cellStyle name="통화_1202" xfId="397"/>
+    <cellStyle name="표준_(정보부문)월별인원계획" xfId="398"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="231">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2188,6 +2220,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF006600"/>
         </patternFill>
       </fill>
@@ -2250,6 +2289,54 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF006600"/>
         </patternFill>
       </fill>
@@ -2269,40 +2356,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2332,6 +2385,54 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2346,6 +2447,54 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
@@ -2353,6 +2502,54 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF006600"/>
         </patternFill>
       </fill>
@@ -2360,6 +2557,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -2408,6 +2612,54 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF006600"/>
         </patternFill>
       </fill>
@@ -2415,6 +2667,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -2463,6 +2722,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF006600"/>
         </patternFill>
       </fill>
@@ -2573,6 +2853,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -2628,6 +2915,54 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF006600"/>
         </patternFill>
       </fill>
@@ -2732,6 +3067,831 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2794,9 +3954,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FF66FF33"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF006600"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3097,19 +4259,19 @@
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="41.8984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6484375" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="9" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" customWidth="1"/>
+    <col min="7" max="9" width="16.19921875" customWidth="1"/>
     <col min="10" max="10" width="40.3984375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="18.69921875" customWidth="1"/>
     <col min="13" max="13" width="13.3984375" style="1" customWidth="1"/>
     <col min="14" max="15" width="14" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.3984375" style="14" customWidth="1"/>
@@ -3120,10 +4282,10 @@
     <col min="27" max="29" width="14" style="1" customWidth="1"/>
     <col min="30" max="30" width="19.09765625" style="14" customWidth="1"/>
     <col min="31" max="34" width="16.3984375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="59.25" customWidth="1"/>
+    <col min="35" max="35" width="59.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17.05" customHeight="1">
+    <row r="1" spans="1:35" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -3302,8 +4464,8 @@
       <c r="AC2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" s="15" t="str">
-        <f>IF(OR(AB2="Not Build",AC2="Not Build"),"Not Build",IF(OR(AB2="Drop",AC2="Drop"),"Drop",IF(OR(AB2="DisQ",AC2="DisQ"),"DisQ",IF(OR(AB2="QF",AC2="QF"),"QF",IF(OR(AB2="QT",AC2="QT"),"QT",IF(OR(AB2="Qd_C",AC2="Qd_C"),"Qd_C",IF(OR(AB2="Qd_L",AC2="Qd_L"),"Qd_L",IF(AND(AB2="",AC2=""),"","QS"))))))))</f>
+      <c r="AD2" s="16" t="str">
+        <f t="shared" ref="AD2" si="0">IF(OR(AB2="Not Build",AC2="Not Build"),"Not Build",IF(OR(AB2="Drop",AC2="Drop"),"Drop",IF(OR(AB2="DisQ",AC2="DisQ"),"DisQ",IF(OR(AB2="QF",AC2="QF"),"QF",IF(OR(AB2="QF",AC2="QF"),"QF",IF(OR(AB2="QF_L",AC2="QF_L"),"QF_L",IF(OR(AB2="QT",AC2="QT"),"QT",IF(OR(AB2="Qd_C",AC2="Qd_C"),"Qd_C",IF(OR(AB2="Qd_L",AC2="Qd_L"),"Qd_L",IF(AND(AB2="",AC2=""),"","QS"))))))))))</f>
         <v>Drop</v>
       </c>
       <c r="AE2" s="3"/>
@@ -3353,7 +4515,7 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="15" t="str">
-        <f t="shared" ref="P3:P5" si="0">IF(OR(N3="Not Build",O3="Not Build"),"Not Build",IF(OR(N3="Drop",O3="Drop"),"Drop",IF(OR(N3="DisQ",O3="DisQ"),"DisQ",IF(OR(N3="QF",O3="QF"),"QF",IF(OR(N3="QT",O3="QT"),"QT",IF(OR(N3="Qd_C",O3="Qd_C"),"Qd_C",IF(OR(N3="Qd_L",O3="Qd_L"),"Qd_L",IF(AND(N3="",O3=""),"","QS"))))))))</f>
+        <f t="shared" ref="P3:P5" si="1">IF(OR(N3="Not Build",O3="Not Build"),"Not Build",IF(OR(N3="Drop",O3="Drop"),"Drop",IF(OR(N3="DisQ",O3="DisQ"),"DisQ",IF(OR(N3="QF",O3="QF"),"QF",IF(OR(N3="QT",O3="QT"),"QT",IF(OR(N3="Qd_C",O3="Qd_C"),"Qd_C",IF(OR(N3="Qd_L",O3="Qd_L"),"Qd_L",IF(AND(N3="",O3=""),"","QS"))))))))</f>
         <v>QS</v>
       </c>
       <c r="Q3" s="3"/>
@@ -3369,7 +4531,7 @@
         <v>69</v>
       </c>
       <c r="W3" s="15" t="str">
-        <f t="shared" ref="W3:W5" si="1">IF(OR(U3="Not Build",V3="Not Build"),"Not Build",IF(OR(U3="Drop",V3="Drop"),"Drop",IF(OR(U3="DisQ",V3="DisQ"),"DisQ",IF(OR(U3="QF",V3="QF"),"QF",IF(OR(U3="QT",V3="QT"),"QT",IF(OR(U3="Qd_C",V3="Qd_C"),"Qd_C",IF(OR(U3="Qd_L",V3="Qd_L"),"Qd_L",IF(AND(U3="",V3=""),"","QS"))))))))</f>
+        <f t="shared" ref="W3:W5" si="2">IF(OR(U3="Not Build",V3="Not Build"),"Not Build",IF(OR(U3="Drop",V3="Drop"),"Drop",IF(OR(U3="DisQ",V3="DisQ"),"DisQ",IF(OR(U3="QF",V3="QF"),"QF",IF(OR(U3="QT",V3="QT"),"QT",IF(OR(U3="Qd_C",V3="Qd_C"),"Qd_C",IF(OR(U3="Qd_L",V3="Qd_L"),"Qd_L",IF(AND(U3="",V3=""),"","QS"))))))))</f>
         <v>QF</v>
       </c>
       <c r="X3" s="3"/>
@@ -3379,14 +4541,14 @@
         <v>15</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" s="15" t="str">
-        <f t="shared" ref="AD3:AD5" si="2">IF(OR(AB3="Not Build",AC3="Not Build"),"Not Build",IF(OR(AB3="Drop",AC3="Drop"),"Drop",IF(OR(AB3="DisQ",AC3="DisQ"),"DisQ",IF(OR(AB3="QF",AC3="QF"),"QF",IF(OR(AB3="QT",AC3="QT"),"QT",IF(OR(AB3="Qd_C",AC3="Qd_C"),"Qd_C",IF(OR(AB3="Qd_L",AC3="Qd_L"),"Qd_L",IF(AND(AB3="",AC3=""),"","QS"))))))))</f>
-        <v>Drop</v>
+        <v>71</v>
+      </c>
+      <c r="AD3" s="16" t="str">
+        <f>IF(OR(AB3="Not Build",AC3="Not Build"),"Not Build",IF(OR(AB3="Drop",AC3="Drop"),"Drop",IF(OR(AB3="DisQ",AC3="DisQ"),"DisQ",IF(OR(AB3="QF",AC3="QF"),"QF",IF(OR(AB3="QF",AC3="QF"),"QF",IF(OR(AB3="QF_L",AC3="QF_L"),"QF_L",IF(OR(AB3="QT",AC3="QT"),"QT",IF(OR(AB3="Qd_C",AC3="Qd_C"),"Qd_C",IF(OR(AB3="Qd_L",AC3="Qd_L"),"Qd_L",IF(AND(AB3="",AC3=""),"","QS"))))))))))</f>
+        <v>QF</v>
       </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
@@ -3437,7 +4599,7 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>QS</v>
       </c>
       <c r="Q4" s="3"/>
@@ -3453,7 +4615,7 @@
         <v>69</v>
       </c>
       <c r="W4" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>QF</v>
       </c>
       <c r="X4" s="3"/>
@@ -3468,8 +4630,8 @@
       <c r="AC4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AD4" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD4" s="16" t="str">
+        <f t="shared" ref="AD4:AD5" si="3">IF(OR(AB4="Not Build",AC4="Not Build"),"Not Build",IF(OR(AB4="Drop",AC4="Drop"),"Drop",IF(OR(AB4="DisQ",AC4="DisQ"),"DisQ",IF(OR(AB4="QF",AC4="QF"),"QF",IF(OR(AB4="QF",AC4="QF"),"QF",IF(OR(AB4="QF_L",AC4="QF_L"),"QF_L",IF(OR(AB4="QT",AC4="QT"),"QT",IF(OR(AB4="Qd_C",AC4="Qd_C"),"Qd_C",IF(OR(AB4="Qd_L",AC4="Qd_L"),"Qd_L",IF(AND(AB4="",AC4=""),"","QS"))))))))))</f>
         <v>Drop</v>
       </c>
       <c r="AE4" s="3"/>
@@ -3521,7 +4683,7 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>QS</v>
       </c>
       <c r="Q5" s="3"/>
@@ -3537,7 +4699,7 @@
         <v>69</v>
       </c>
       <c r="W5" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>QF</v>
       </c>
       <c r="X5" s="3"/>
@@ -3547,14 +4709,14 @@
         <v>17</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD5" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>Drop</v>
+        <v>71</v>
+      </c>
+      <c r="AD5" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>QF_L</v>
       </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
@@ -3575,323 +4737,337 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="U1:W1 AH2:AH1048576 N1:S1 U6:Z1048576 N6:S1048576">
-    <cfRule type="cellIs" dxfId="83" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="108" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1 AH2:AH1048576 N1:S1 U6:Z1048576 N6:S1048576">
-    <cfRule type="cellIs" dxfId="82" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="107" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1 AH2:AH1048576 N1:S1 U6:Z1048576 N6:S1048576">
-    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="106" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1 AH2:AH1048576 N1:S1 U6:Z1048576 N6:S1048576">
-    <cfRule type="cellIs" dxfId="80" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="105" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1 AH2:AH1048576 N1:S1 U6:Z1048576 N6:S1048576">
-    <cfRule type="cellIs" dxfId="79" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="104" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1 AH2:AH1048576 N1:S1 U6:Z1048576 N6:S1048576">
-    <cfRule type="cellIs" dxfId="78" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="103" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1 AH2:AH1048576 N1:S1 U6:Z1048576 N6:S1048576">
-    <cfRule type="cellIs" dxfId="77" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="102" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="67" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="cellIs" dxfId="75" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="73" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="72" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="cellIs" dxfId="73" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="71" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="cellIs" dxfId="72" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="70" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="cellIs" dxfId="71" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="69" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="68" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AD1 AB6:AG1048576">
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="66" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AD1 AB6:AG1048576">
-    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="65" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AD1 AB6:AG1048576">
-    <cfRule type="cellIs" dxfId="67" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="64" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AD1 AB6:AG1048576">
-    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="63" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AD1 AB6:AG1048576">
-    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="62" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AD1 AB6:AG1048576">
-    <cfRule type="cellIs" dxfId="64" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="61" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1:AD1 AB6:AG1048576">
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="60" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AG1">
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="53" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AG1">
-    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="59" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AG1">
-    <cfRule type="cellIs" dxfId="60" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AG1">
-    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="57" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AG1">
-    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="56" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AG1">
-    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="55" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1:AG1">
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="54" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S2">
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="38" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S2">
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="37" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S2">
-    <cfRule type="cellIs" dxfId="53" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="36" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S2">
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="35" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S2">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="34" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S2">
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="33" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S2">
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="32" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O5 Q3:S5">
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="31" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O5 Q3:S5">
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="30" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O5 Q3:S5">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="29" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O5 Q3:S5">
-    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="28" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O5 Q3:S5">
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="27" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O5 Q3:S5">
-    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="26" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O5 Q3:S5">
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="25" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Z5">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="24" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Z5">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="23" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Z5">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="22" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Z5">
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="21" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Z5">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="20" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Z5">
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="19" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:Z5">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="18" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG5">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG5">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG5">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="15" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG5">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="14" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG5">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="13" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG5">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG5">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P5">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="10" operator="equal">
       <formula>"QS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P5">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="9" operator="equal">
       <formula>"QT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P5">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
       <formula>"QF"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P5">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P5">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
       <formula>"Drop"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P5">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>"Not Build"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P5">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"Leverage"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O5 U2:V5 AB2:AC5">
+  <conditionalFormatting sqref="AB2:AD5">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+      <formula>"QF_L"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+      <formula>"Qd_C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+      <formula>"Qd_L"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O5 U2:V5">
       <formula1>"QS, Qd_L, Qd_C, QT, QF, DisQ, Drop, Not Build"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AC5">
+      <formula1>"QS, Qd_L, Qd_C, QT, QF,QF_L, DisQ, Drop, Not Build"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
